--- a/modified_tables/table_9.xlsx
+++ b/modified_tables/table_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -28,73 +28,52 @@
     <t>2017</t>
   </si>
   <si>
-    <t>Academic research &amp; education</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>68.4</t>
-  </si>
-  <si>
-    <t>43.8</t>
-  </si>
-  <si>
-    <t>Social causes</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>Arts</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>Total amount donated (€)</t>
-  </si>
-  <si>
-    <t>318,376</t>
-  </si>
-  <si>
-    <t>656,851</t>
-  </si>
-  <si>
-    <t>657,304</t>
+    <t>Prevention of money laundering (incl. follow-up courses)</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>2,082</t>
+  </si>
+  <si>
+    <t>3,206</t>
+  </si>
+  <si>
+    <t>Ban on market price manipulation (incl. follow-up courses)*</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>Fraud prevention for managers (incl. follow-up courses)</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Fraud prevention for employees (incl. follow-up courses)</t>
+  </si>
+  <si>
+    <t>1,153</t>
+  </si>
+  <si>
+    <t>3,920</t>
+  </si>
+  <si>
+    <t>728</t>
   </si>
 </sst>
 </file>
@@ -452,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,14 +453,8 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,14 +470,8 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,14 +487,8 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,13 +502,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
